--- a/prep/_pressures/po_pathogens_mse2019.xlsx
+++ b/prep/_pressures/po_pathogens_mse2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AGUAS LIMPIAS\CAPAS DE DATOS AGUAS LIMPIAS 2\EXCELS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karla\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4682EC8-0408-42F9-8304-4D338B83B171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19590" windowHeight="11760" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="po_pathogens_GGS MSE" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'po_pathogens_GGS MSE'!$A$6:$N$87</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sistemas</author>
   </authors>
   <commentList>
-    <comment ref="A73" authorId="0" shapeId="0">
+    <comment ref="A73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F73" authorId="0" shapeId="0">
+    <comment ref="F73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="137">
   <si>
     <t>                    Simón Bolívar (Julio Moreno)</t>
   </si>
@@ -505,26 +506,21 @@
     <t>Porcentaje de viviendas con acceso a MEE</t>
   </si>
   <si>
-    <t>Punto de referencia</t>
+    <t>pressure_score</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Presión</t>
-  </si>
-  <si>
-    <t>pressure_score</t>
+    <t>Porcentaje de viviendas sin acceso a MEE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -712,7 +708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -916,36 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -958,27 +924,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1271,14 +1222,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1295,61 +1260,33 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1369,7 +1306,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1492,9 +1429,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1564,7 +1500,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7B50-442D-9DDB-FB6BDC1A2101}"/>
             </c:ext>
@@ -1632,9 +1568,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1704,7 +1639,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B50-442D-9DDB-FB6BDC1A2101}"/>
             </c:ext>
@@ -1774,9 +1709,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1846,7 +1780,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7B50-442D-9DDB-FB6BDC1A2101}"/>
             </c:ext>
@@ -1963,7 +1897,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2632,7 +2565,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N129"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
@@ -6669,17 +6602,17 @@
       <c r="N129" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N87"/>
+  <autoFilter ref="A6:N87" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CE88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AO1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -6706,21 +6639,21 @@
       <c r="A1" s="37"/>
       <c r="B1" s="38"/>
       <c r="C1" s="39"/>
-      <c r="D1" s="119">
+      <c r="D1" s="134">
         <v>1990</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119">
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134">
         <v>2001</v>
       </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119">
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134">
         <v>2010</v>
       </c>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
       <c r="Q1" s="40"/>
@@ -6742,21 +6675,21 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
-      <c r="AD1" s="118">
+      <c r="AD1" s="135">
         <v>1990</v>
       </c>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="120">
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="136">
         <v>2001</v>
       </c>
-      <c r="AI1" s="120"/>
-      <c r="AJ1" s="120"/>
-      <c r="AL1" s="126">
+      <c r="AI1" s="136"/>
+      <c r="AJ1" s="136"/>
+      <c r="AL1" s="118">
         <v>2010</v>
       </c>
-      <c r="AM1" s="126"/>
+      <c r="AM1" s="118"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
@@ -6772,13 +6705,13 @@
       <c r="AZ1" s="2"/>
     </row>
     <row r="2" spans="1:83" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="133" t="s">
         <v>103</v>
       </c>
       <c r="D2" s="42" t="s">
@@ -6809,13 +6742,13 @@
         <v>92</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="125" t="s">
+      <c r="N2" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="125" t="s">
+      <c r="O2" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="125" t="s">
+      <c r="P2" s="133" t="s">
         <v>103</v>
       </c>
       <c r="Q2" s="42" t="s">
@@ -6922,9 +6855,9 @@
       <c r="AZ2" s="2"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
       <c r="D3" s="42" t="s">
         <v>91</v>
       </c>
@@ -6953,9 +6886,9 @@
         <v>89</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
       <c r="Q3" s="42"/>
       <c r="R3" s="42" t="s">
         <v>91</v>
@@ -7031,7 +6964,7 @@
         <v>0.9621749408983451</v>
       </c>
       <c r="AN3" s="2"/>
-      <c r="AO3" s="121" t="s">
+      <c r="AO3" s="129" t="s">
         <v>109</v>
       </c>
       <c r="AP3" s="49" t="s">
@@ -7198,7 +7131,7 @@
         <v>0.94994511525795833</v>
       </c>
       <c r="AN4" s="2"/>
-      <c r="AO4" s="122"/>
+      <c r="AO4" s="130"/>
       <c r="AP4" s="49" t="s">
         <v>114</v>
       </c>
@@ -7365,7 +7298,7 @@
         <v>0.88898807108658606</v>
       </c>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="123" t="s">
+      <c r="AO5" s="131" t="s">
         <v>115</v>
       </c>
       <c r="AP5" s="65" t="s">
@@ -7538,7 +7471,7 @@
         <v>0.89511041009463721</v>
       </c>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="124"/>
+      <c r="AO6" s="132"/>
       <c r="AP6" s="76" t="s">
         <v>114</v>
       </c>
@@ -7969,7 +7902,7 @@
         <v>0.65975015879737453</v>
       </c>
       <c r="AH9" s="45">
-        <f t="shared" ref="AH9:AL9" si="22">SUM(U21:U22,U24:U27)</f>
+        <f t="shared" ref="AH9:AK9" si="22">SUM(U21:U22,U24:U27)</f>
         <v>2635</v>
       </c>
       <c r="AI9" s="45">
@@ -19067,6 +19000,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="AO3:AO4"/>
     <mergeCell ref="AO5:AO6"/>
     <mergeCell ref="A2:A3"/>
@@ -19075,11 +19013,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19087,131 +19020,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="153" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="127" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="136" t="s">
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="136" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="132"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="123"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="133">
+      <c r="B2" s="124">
         <v>1990</v>
       </c>
       <c r="C2" s="115">
         <v>2001</v>
       </c>
-      <c r="D2" s="142">
+      <c r="D2" s="126">
         <v>2010</v>
       </c>
-      <c r="E2" s="135" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="133">
+      <c r="E2" s="124">
         <v>1990</v>
       </c>
-      <c r="G2" s="115">
+      <c r="F2" s="115">
         <v>2001</v>
       </c>
-      <c r="H2" s="134">
+      <c r="G2" s="125">
         <v>2010</v>
       </c>
-      <c r="I2" s="133">
-        <v>1990</v>
-      </c>
-      <c r="J2" s="115">
-        <v>2001</v>
-      </c>
-      <c r="K2" s="134">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="137">
+      <c r="B3" s="138">
         <f>'[1]cw_pathogen_trendGGF MSE'!AS4</f>
         <v>0.47889312862422256</v>
       </c>
-      <c r="C3" s="138">
+      <c r="C3" s="139">
         <f>'[1]cw_pathogen_trendGGF MSE'!AV4</f>
         <v>0.53747049073283437</v>
       </c>
-      <c r="D3" s="143">
+      <c r="D3" s="140">
         <f>'[1]cw_pathogen_trendGGF MSE'!AY4</f>
         <v>0.89424713710925408</v>
       </c>
-      <c r="E3" s="146">
-        <v>0.95</v>
-      </c>
-      <c r="F3" s="148">
-        <f>B3/$E$3</f>
-        <v>0.5040980301307606</v>
-      </c>
-      <c r="G3" s="139">
-        <f>C3/$E$3</f>
-        <v>0.56575841129772042</v>
-      </c>
-      <c r="H3" s="149">
-        <f>D3/$E$3</f>
-        <v>0.94131277590447804</v>
-      </c>
-      <c r="I3" s="156">
-        <f>1-F3</f>
-        <v>0.4959019698692394</v>
-      </c>
-      <c r="J3" s="157">
-        <f>1-G3</f>
-        <v>0.43424158870227958</v>
-      </c>
-      <c r="K3" s="154">
-        <f>1-H3</f>
-        <v>5.8687224095521962E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="129" t="s">
+      <c r="E3" s="138">
+        <f>1-B3</f>
+        <v>0.52110687137577738</v>
+      </c>
+      <c r="F3" s="139">
+        <f t="shared" ref="F3:G4" si="0">1-C3</f>
+        <v>0.46252950926716563</v>
+      </c>
+      <c r="G3" s="141">
+        <f t="shared" si="0"/>
+        <v>0.10575286289074592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="140">
+      <c r="B4" s="142">
         <f>'[1]cw_pathogen_trendGGF MSE'!AS6</f>
         <v>0.49418473168998156</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="143">
         <f>'[1]cw_pathogen_trendGGF MSE'!AV6</f>
         <v>0.64752152980267175</v>
       </c>
@@ -19219,33 +19120,36 @@
         <f>'[1]cw_pathogen_trendGGF MSE'!AY6</f>
         <v>0.8838672814278119</v>
       </c>
-      <c r="E4" s="147">
-        <v>0.95</v>
-      </c>
-      <c r="F4" s="150">
-        <f>B4/$E$4</f>
-        <v>0.52019445441050693</v>
-      </c>
-      <c r="G4" s="151">
-        <f t="shared" ref="G4:H4" si="0">C4/$E$4</f>
-        <v>0.68160161031860189</v>
-      </c>
-      <c r="H4" s="152">
+      <c r="E4" s="145">
+        <f>1-B4</f>
+        <v>0.50581526831001844</v>
+      </c>
+      <c r="F4" s="146">
         <f t="shared" si="0"/>
-        <v>0.93038661202927575</v>
-      </c>
-      <c r="I4" s="158">
-        <f>1-F4</f>
-        <v>0.47980554558949307</v>
-      </c>
-      <c r="J4" s="159">
-        <f t="shared" ref="J4:K4" si="1">1-G4</f>
-        <v>0.31839838968139811</v>
-      </c>
-      <c r="K4" s="155">
-        <f t="shared" si="1"/>
-        <v>6.961338797072425E-2</v>
-      </c>
+        <v>0.35247847019732825</v>
+      </c>
+      <c r="G4" s="147">
+        <f t="shared" si="0"/>
+        <v>0.1161327185721881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="137"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="137"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="137"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="137"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="137"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19253,11 +19157,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19266,14 +19170,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="160" t="s">
-        <v>138</v>
+      <c r="C1" s="128" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -19283,9 +19187,9 @@
       <c r="B2" s="37">
         <v>1990</v>
       </c>
-      <c r="C2" s="37">
-        <f>po_pathogen_MSE!I4</f>
-        <v>0.47980554558949307</v>
+      <c r="C2" s="148">
+        <f>po_pathogen_MSE!E4</f>
+        <v>0.50581526831001844</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -19295,9 +19199,9 @@
       <c r="B3" s="37">
         <v>2001</v>
       </c>
-      <c r="C3" s="37">
-        <f>po_pathogen_MSE!J4</f>
-        <v>0.31839838968139811</v>
+      <c r="C3" s="148">
+        <f>po_pathogen_MSE!F4</f>
+        <v>0.35247847019732825</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -19307,9 +19211,9 @@
       <c r="B4" s="37">
         <v>2010</v>
       </c>
-      <c r="C4" s="37">
-        <f>po_pathogen_MSE!K4</f>
-        <v>6.961338797072425E-2</v>
+      <c r="C4" s="148">
+        <f>po_pathogen_MSE!G4</f>
+        <v>0.1161327185721881</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -19319,9 +19223,9 @@
       <c r="B5" s="37">
         <v>1990</v>
       </c>
-      <c r="C5" s="37">
-        <f>po_pathogen_MSE!I3</f>
-        <v>0.4959019698692394</v>
+      <c r="C5" s="148">
+        <f>po_pathogen_MSE!E3</f>
+        <v>0.52110687137577738</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -19331,9 +19235,9 @@
       <c r="B6" s="37">
         <v>2001</v>
       </c>
-      <c r="C6" s="37">
-        <f>po_pathogen_MSE!J3</f>
-        <v>0.43424158870227958</v>
+      <c r="C6" s="148">
+        <f>po_pathogen_MSE!F3</f>
+        <v>0.46252950926716563</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -19343,9 +19247,9 @@
       <c r="B7" s="37">
         <v>2010</v>
       </c>
-      <c r="C7" s="37">
-        <f>po_pathogen_MSE!K3</f>
-        <v>5.8687224095521962E-2</v>
+      <c r="C7" s="148">
+        <f>po_pathogen_MSE!G3</f>
+        <v>0.10575286289074592</v>
       </c>
     </row>
   </sheetData>
